--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>CaseId</t>
   </si>
@@ -60,28 +60,31 @@
     <t>post</t>
   </si>
   <si>
+    <t>{"OrganId": "8651010000002111"}</t>
+  </si>
+  <si>
+    <t>{"data":{"semesterId":"2020_2021_1","courseId":"","teacherId":"","collegeId":"","minToClassRate":null,"maxToClassRate":null,"couTypeId":"0","sectionId":"","startTime":"2020-11-10","endTime":"2020-11-12","sortType":1,"pageNum":1,"pageSize":20},"belongOrgId":"8651010000002"}</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>test_002</t>
+  </si>
+  <si>
+    <t>到课率明细：按科目、学院、教师、到课率范围、节次关联查询</t>
+  </si>
+  <si>
     <t>{"OrganId": "8651010000002"}</t>
-  </si>
-  <si>
-    <t>{"data":{"semesterId":"2020_2021_1","courseId":"","teacherId":"","collegeId":"","minToClassRate":null,"maxToClassRate":null,"couTypeId":"0","sectionId":"","startTime":"2020-11-10","endTime":"2020-11-12","sortType":1,"pageNum":1,"pageSize":20},"belongOrgId":"8651010000002"}</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>test_002</t>
-  </si>
-  <si>
-    <t>到课率明细：按科目、学院、教师、到课率范围、节次关联查询</t>
   </si>
   <si>
     <t>{"data":{"semesterId":"2020_2021_1","courseId":"c77140fa1cbba69721e2af7ea37f60cc","teacherId":"B53F21881459C22F1702D01914D9412B","collegeId":"502","minToClassRate":1,"maxToClassRate":100,"couTypeId":"0","sectionId":"","startTime":"2020-11-12","endTime":"2020-11-12","sortType":1,"pageNum":1,"pageSize":20},"belongOrgId":"8651010000008"}</t>
@@ -1078,8 +1081,8 @@
   <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
@@ -1173,10 +1176,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>16</v>
